--- a/data/helpdoc/DND/11_艾奎兹玄有限责任公司AI.xlsx
+++ b/data/helpdoc/DND/11_艾奎兹玄有限责任公司AI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="18530" windowHeight="7270"/>
   </bookViews>
   <sheets>
     <sheet name="AI法术" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>5e 扭曲价值</t>
+    <t>扭曲价值</t>
   </si>
   <si>
     <t/>
@@ -339,7 +339,7 @@
     <t>#Acq_Inc</t>
   </si>
   <si>
-    <t>5e 快速交友</t>
+    <t>快速交友</t>
   </si>
   <si>
     <t>快速交友 Fast Friends(Acq Inc)
@@ -355,7 +355,7 @@
 升环施法效应：当你使用4环或更高法术位施放本法术时，你使用的法术位每比3环高一环，你就可以多指定一个额外的目标。</t>
   </si>
   <si>
-    <t>5e 巧舌如簧</t>
+    <t>巧舌如簧</t>
   </si>
   <si>
     <t>巧舌如簧 Gift Of Gab(Acq Inc)
@@ -369,7 +369,7 @@
 当你施放这个法术时，你可以通过巧妙的操作修整你周围听众的记忆，从而使在你周围5尺内、每一个你所选择的生物立即忘掉在最后六秒中你所说过的每一句话。之后，他们会记住你实际上说的是作为这个法术言语成分的那些话语。</t>
   </si>
   <si>
-    <t>5e 鼓动贪欲</t>
+    <t>鼓动贪欲</t>
   </si>
   <si>
     <t>鼓动贪欲 Incite Greed(Acq Inc)
@@ -383,7 +383,7 @@
 受影响的目标每个回合结束时，可以再进行一次感知豁免检定。如果它成功，对于那个目标的效果将结束。</t>
   </si>
   <si>
-    <t>5e 吉姆的发光硬币</t>
+    <t>吉姆的发光硬币</t>
   </si>
   <si>
     <t>吉姆的发光硬币 Jim's Glowing Coin(Acq Inc)
@@ -396,7 +396,7 @@
 在魔术大师、大冒险家吉姆·达克马奇Jim Darkmagic运用过的许多骗术中，“发光的旧硬币”是其中最为经典的。当你施法时，你将作为法术材料成分的硬币丢往法术距离内任意一点。这枚硬币将会像处于光亮术light法术影响一般闪闪发光。在硬币周围30尺内，你所能看到、并且由你选择的每一个生物必须通过一次感知豁免检定，否则将会在持续时间内被硬币所分心。在被分心时，生物在感知（观察）检定和先攻检定中具有劣势。</t>
   </si>
   <si>
-    <t>5e 吉姆的魔法飞弹</t>
+    <t>吉姆的魔法飞弹</t>
   </si>
   <si>
     <t>吉姆的魔法飞弹 Jim's Magic Missile(Acq Inc)
@@ -412,7 +412,7 @@
 升环施法效应：当你使用2环或更高的法术位施放本法术时，使用的法术位每高一环，法术就可以多创造一发飞镖，但是版税成分也会增加1gp。</t>
   </si>
   <si>
-    <t>5e 励志演讲</t>
+    <t>励志演讲</t>
   </si>
   <si>
     <t>励志演讲 Motivational Speech(Acq Inc)
@@ -1513,15 +1513,15 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.63888888888889" style="4" customWidth="1"/>
-    <col min="3" max="3" width="93.2222222222222" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.3333333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.63636363636364" style="4" customWidth="1"/>
+    <col min="3" max="3" width="93.2181818181818" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.3363636363636" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1555,6 +1555,7 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D2"/>
       <c r="F2" t="s">
         <v>9</v>
       </c>
@@ -1569,6 +1570,7 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D3"/>
       <c r="F3" t="s">
         <v>9</v>
       </c>
@@ -1583,6 +1585,7 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D4"/>
       <c r="F4" t="s">
         <v>9</v>
       </c>
@@ -1597,6 +1600,7 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D5"/>
       <c r="F5" t="s">
         <v>9</v>
       </c>
@@ -1611,6 +1615,7 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D6"/>
       <c r="F6" t="s">
         <v>9</v>
       </c>
@@ -1625,6 +1630,7 @@
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D7"/>
       <c r="F7" t="s">
         <v>9</v>
       </c>
@@ -1639,69 +1645,64 @@
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D8"/>
       <c r="F8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="2:3">
+    <row r="9" customFormat="1" spans="1:3">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" customFormat="1" spans="2:3">
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" customFormat="1" spans="2:3">
+    <row r="11" customFormat="1" spans="1:3">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" customFormat="1" spans="2:3">
+    <row r="12" customFormat="1" spans="1:3">
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:3">
-      <c r="A13"/>
+    <row r="13" s="3" customFormat="1" spans="2:3">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:3">
-      <c r="A14"/>
+    <row r="14" s="3" customFormat="1" spans="2:3">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:3">
-      <c r="A15"/>
+    <row r="15" s="3" customFormat="1" spans="2:3">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:3">
-      <c r="A16"/>
+    <row r="16" s="3" customFormat="1" spans="2:3">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:3">
-      <c r="A17"/>
+    <row r="17" s="3" customFormat="1" spans="2:3">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:3">
-      <c r="A18"/>
+    <row r="18" s="3" customFormat="1" spans="3:3">
       <c r="C18" s="6"/>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:3">
-      <c r="A19"/>
+    <row r="19" s="3" customFormat="1" spans="3:3">
       <c r="C19" s="6"/>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:3">
-      <c r="A20"/>
+    <row r="20" s="3" customFormat="1" spans="3:3">
       <c r="C20" s="6"/>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:3">
-      <c r="A21"/>
+    <row r="21" s="3" customFormat="1" spans="3:3">
       <c r="C21" s="6"/>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:3">
-      <c r="A22"/>
+    <row r="22" s="3" customFormat="1" spans="3:3">
       <c r="C22" s="6"/>
     </row>
   </sheetData>
@@ -1721,9 +1722,9 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="85.8148148148148" customWidth="1"/>
+    <col min="3" max="3" width="85.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
@@ -1871,12 +1872,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.8148148148148" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81481481481481" style="1"/>
-    <col min="3" max="3" width="59.1851851851852" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="1" width="12.8181818181818" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81818181818182" style="1"/>
+    <col min="3" max="3" width="59.1818181818182" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
@@ -1907,6 +1908,8 @@
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D2"/>
+      <c r="E2"/>
       <c r="F2" t="s">
         <v>9</v>
       </c>
@@ -1919,6 +1922,8 @@
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" t="s">
         <v>9</v>
       </c>
@@ -1931,6 +1936,8 @@
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D4"/>
+      <c r="E4"/>
       <c r="F4" t="s">
         <v>9</v>
       </c>
@@ -1943,6 +1950,8 @@
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="F5" t="s">
         <v>9</v>
       </c>
@@ -1955,6 +1964,8 @@
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="F6" t="s">
         <v>9</v>
       </c>
@@ -1967,6 +1978,8 @@
       <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7" t="s">
         <v>9</v>
       </c>
@@ -1979,6 +1992,8 @@
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D8"/>
+      <c r="E8"/>
       <c r="F8" t="s">
         <v>9</v>
       </c>
